--- a/FEDAI/FEIDA_Datalist.xlsx
+++ b/FEDAI/FEIDA_Datalist.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yy2633/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yy2633/MA/2019Spring/RAship/FEDAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E71E38-3E69-5F46-BEB1-2ED40A6AE513}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7907A976-447F-E34C-822D-B63DFF035993}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13240" yWindow="460" windowWidth="20540" windowHeight="17040" xr2:uid="{5E06B9E7-531E-1848-A504-08FDF6D3C7A1}"/>
+    <workbookView xWindow="760" yWindow="480" windowWidth="25740" windowHeight="17040" activeTab="1" xr2:uid="{5E06B9E7-531E-1848-A504-08FDF6D3C7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="259">
   <si>
     <t>Chapter 2</t>
   </si>
@@ -795,6 +796,58 @@
   </si>
   <si>
     <t>Middleton_Rogers_AI_2010.dta</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gerber_Green_APSRsubset_2005.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correct File</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fieldhouse_et_al_unpublished_2010_expanded.dta</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exercise 11.9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exercise 11.8 (a)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correct File Link</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hdl.handle.net/10079/2bvq8dp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need to Upload</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter_11_Dupas_(2010)_Dataset.csv </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrong File listed on FEIDA website</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exercise 11.8 (b)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Errata of FEIDA dataset list </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>for website https://isps.yale.edu/FEDAI</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -802,7 +855,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -863,6 +916,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -901,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,6 +1033,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1266,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F747CD-59EE-3244-8143-56B1173E4817}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136:B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2028,18 +2152,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:5" s="7" customFormat="1">
+      <c r="A57" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>84</v>
+      <c r="E57" s="7" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3325,7 +3449,7 @@
     <hyperlink ref="C55" r:id="rId44" display="http://hdl.handle.net/10079/3bk3jmv" xr:uid="{34209070-2A81-9347-B67D-9BEEFFAE312F}"/>
     <hyperlink ref="C56" r:id="rId45" display="https://hdl.handle.net/10079/ttdz0m1" xr:uid="{948C0644-2E89-184D-A6E8-D5A422C55FB5}"/>
     <hyperlink ref="C57" r:id="rId46" display="http://hdl.handle.net/10079/70rxwqn" xr:uid="{DE04A03D-87F0-9242-82EE-9760B38AA4A8}"/>
-    <hyperlink ref="C58" r:id="rId47" display="http://hdl.handle.net/10079/q2bvqkj" xr:uid="{C04B688C-B4B6-D645-9139-0EB62BAB5E48}"/>
+    <hyperlink ref="C58" r:id="rId47" xr:uid="{C04B688C-B4B6-D645-9139-0EB62BAB5E48}"/>
     <hyperlink ref="C59" r:id="rId48" display="http://hdl.handle.net/10079/zkh18mj" xr:uid="{AFEF52BB-6C45-7F4E-80AC-7DE413D67A4D}"/>
     <hyperlink ref="C63" r:id="rId49" display="http://hdl.handle.net/10079/kh189dd" xr:uid="{286E46CF-296E-7644-B8FE-557FEAB3BD7C}"/>
     <hyperlink ref="C64" r:id="rId50" display="http://hdl.handle.net/10079/xpnvxb0" xr:uid="{11CF8564-3B5A-AB4E-B889-BFA684092EA8}"/>
@@ -3400,4 +3524,177 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AABB73-E0F1-FF4D-98A2-4D18D33E7DF1}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="38" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="13" customFormat="1">
+      <c r="A5" s="21">
+        <v>316</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="21">
+        <v>380</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="21">
+        <v>380</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="21">
+        <v>380</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{CAF3CFAE-DF49-EA43-B58F-2D3C651F303A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FEDAI/FEIDA_Datalist.xlsx
+++ b/FEDAI/FEIDA_Datalist.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yy2633/MA/2019Spring/RAship/FEDAI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yy2633/MA/RAship/FEDAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7907A976-447F-E34C-822D-B63DFF035993}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF3159-1A87-CE43-A53D-9A48AABDB0EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="480" windowWidth="25740" windowHeight="17040" activeTab="1" xr2:uid="{5E06B9E7-531E-1848-A504-08FDF6D3C7A1}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="25740" windowHeight="17040" activeTab="1" xr2:uid="{5E06B9E7-531E-1848-A504-08FDF6D3C7A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Whole Datalist" sheetId="1" r:id="rId1"/>
+    <sheet name="Solution Sets" sheetId="3" r:id="rId2"/>
+    <sheet name="Errata" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="261">
   <si>
     <t>Chapter 2</t>
   </si>
@@ -848,6 +849,14 @@
   </si>
   <si>
     <t>for website https://isps.yale.edu/FEDAI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong dataset</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data for Solution Sets</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -855,7 +864,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -954,6 +963,22 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -992,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,15 +1063,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1067,6 +1083,39 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1390,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F747CD-59EE-3244-8143-56B1173E4817}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136:B136"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2250,17 +2299,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:5" s="7" customFormat="1">
+      <c r="A65" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2320,17 +2369,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2">
+    <row r="70" spans="1:5" s="7" customFormat="1">
+      <c r="A70" s="5">
         <v>199</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2460,17 +2509,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:5" s="7" customFormat="1">
+      <c r="A81" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3175,18 +3224,17 @@
         <v>243</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="13" customFormat="1">
-      <c r="A136" s="9">
+    <row r="136" spans="1:5" s="11" customFormat="1">
+      <c r="A136" s="22">
         <v>380</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D136" s="11"/>
-      <c r="E136" s="12" t="s">
+      <c r="E136" s="11" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3527,10 +3575,464 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AB25F3-92C0-8A44-BC98-39A2B6C1364A}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="5" max="5" width="53.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1">
+      <c r="A3" s="5">
+        <v>87</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="7" customFormat="1">
+      <c r="A4" s="5">
+        <v>88</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="7" customFormat="1">
+      <c r="A5" s="5">
+        <v>88</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="7" customFormat="1">
+      <c r="A6" s="5">
+        <v>88</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1">
+      <c r="A7" s="5">
+        <v>90</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="7" customFormat="1">
+      <c r="A9" s="5">
+        <v>123</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="7" customFormat="1">
+      <c r="A10" s="5">
+        <v>125</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="7" customFormat="1">
+      <c r="A11" s="5">
+        <v>126</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="7" customFormat="1">
+      <c r="A12" s="5">
+        <v>126</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="7" customFormat="1">
+      <c r="A13" s="5">
+        <v>128</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="7" customFormat="1">
+      <c r="A14" s="5">
+        <v>130</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="7" customFormat="1">
+      <c r="A16" s="5">
+        <v>170</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" s="7" customFormat="1">
+      <c r="A18" s="5">
+        <v>208</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:5" s="7" customFormat="1">
+      <c r="A20" s="5">
+        <v>245</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="5">
+        <v>286</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="7" customFormat="1">
+      <c r="A23" s="5">
+        <v>286</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="7" customFormat="1">
+      <c r="A24" s="5">
+        <v>286</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="7" customFormat="1">
+      <c r="A26" s="5">
+        <v>314</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="7" customFormat="1">
+      <c r="A27" s="5">
+        <v>315</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="7" customFormat="1">
+      <c r="A28" s="5">
+        <v>315</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="26" customFormat="1">
+      <c r="A29" s="24">
+        <v>316</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="7" customFormat="1">
+      <c r="A31" s="5">
+        <v>339</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="7" customFormat="1">
+      <c r="A32" s="5">
+        <v>339</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="7" customFormat="1">
+      <c r="A33" s="5">
+        <v>342</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="26" customFormat="1">
+      <c r="A34" s="24">
+        <v>380</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="7" customFormat="1">
+      <c r="A35" s="5">
+        <v>421</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="7" customFormat="1">
+      <c r="A37" s="5">
+        <v>445</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{96D9D37D-5A41-684D-9A57-1AD445356959}"/>
+    <hyperlink ref="C6" r:id="rId2" display="http://hdl.handle.net/10079/5hqbzz8" xr:uid="{8F32B231-59D9-3041-B066-3212E051E33A}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{9859BABD-B1ED-1548-BC2B-387C53371B1D}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{36EA6105-0A7A-8845-BB20-A6E182A81E5D}"/>
+    <hyperlink ref="C3" r:id="rId5" display="http://hdl.handle.net/10079/brv15r5" xr:uid="{7F726425-AC71-0B4C-A6B6-5338360239AA}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{ED8B6135-5A53-3D4F-9D33-E47E374E5F99}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{6116C2FF-1834-304B-B334-91E0DCE0B794}"/>
+    <hyperlink ref="C11" r:id="rId8" display="http://hdl.handle.net/10079/kkwh7b6" xr:uid="{F6C2EBF9-B002-7E47-8120-E174E1645544}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{7D9DF7BD-7A88-2345-9365-934FB8DDA00B}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{0F368102-833F-564C-B85E-7430D83AF3D2}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{9B244D4A-EAE3-EB43-A611-F3545DDCF665}"/>
+    <hyperlink ref="C16" r:id="rId12" display="http://hdl.handle.net/10079/zkh18mj" xr:uid="{23955530-7237-9B40-8731-B558FC6103F2}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{80A21453-1D52-7545-912E-85BA8E9E28B2}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{8D5771F9-87F8-C941-B81E-67819DBB1D7D}"/>
+    <hyperlink ref="C22" r:id="rId15" xr:uid="{9A1E2E14-5CDC-DF4C-809A-638BE0134381}"/>
+    <hyperlink ref="C23" r:id="rId16" xr:uid="{4BC72624-482E-F84D-9978-2988C16E952E}"/>
+    <hyperlink ref="C24" r:id="rId17" xr:uid="{14585973-A873-0F46-B7FB-C0D5724318CE}"/>
+    <hyperlink ref="C26" r:id="rId18" xr:uid="{9A0A6BDC-51D7-9C43-9D2F-A1F76E1DC887}"/>
+    <hyperlink ref="C27" r:id="rId19" display="http://hdl.handle.net/10079/0cfxq05" xr:uid="{0DC09C94-14E1-754D-8800-6B72110AD319}"/>
+    <hyperlink ref="C28" r:id="rId20" display="http://hdl.handle.net/10079/h9w0w4g" xr:uid="{042883D1-B3B7-8E43-935F-2B61CE9D4F7D}"/>
+    <hyperlink ref="C29" r:id="rId21" display="http://hdl.handle.net/10079/rv15f5k" xr:uid="{30F9DB7A-B583-AC40-BB94-32AAE48D998C}"/>
+    <hyperlink ref="C31" r:id="rId22" display="http://hdl.handle.net/10079/8w9gj8s" xr:uid="{A37413F0-B415-FD41-9F05-99FCB241CC50}"/>
+    <hyperlink ref="C32" r:id="rId23" xr:uid="{7DB1C0A6-CBB8-0F4D-9E2E-A8828EEF4DF4}"/>
+    <hyperlink ref="C33" r:id="rId24" display="http://hdl.handle.net/10079/866t1sc" xr:uid="{B37C6A19-6EBD-0D46-BEE8-3FC1E368B66A}"/>
+    <hyperlink ref="C35" r:id="rId25" xr:uid="{AB8CE4B8-FE3D-264D-9912-086B4121A5EA}"/>
+    <hyperlink ref="C37" r:id="rId26" xr:uid="{92641670-0A69-AC4F-BCC8-2B953375B559}"/>
+    <hyperlink ref="C34" r:id="rId27" display="http://hdl.handle.net/10079/xksn0db" xr:uid="{18DD6FD5-F5EB-9F4F-BC1D-DCF3F25B7C87}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AABB73-E0F1-FF4D-98A2-4D18D33E7DF1}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3544,136 +4046,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="19"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="13" customFormat="1">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>316</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="19"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>255</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="19"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>380</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>380</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="21" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>380</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="21" t="s">
         <v>253</v>
       </c>
     </row>

--- a/FEDAI/FEIDA_Datalist.xlsx
+++ b/FEDAI/FEIDA_Datalist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yy2633/MA/RAship/FEDAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF3159-1A87-CE43-A53D-9A48AABDB0EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9198CAC-11D6-1742-91CD-A1C2B93FB77D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="25740" windowHeight="17040" activeTab="1" xr2:uid="{5E06B9E7-531E-1848-A504-08FDF6D3C7A1}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="25740" windowHeight="17040" xr2:uid="{5E06B9E7-531E-1848-A504-08FDF6D3C7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Whole Datalist" sheetId="1" r:id="rId1"/>
@@ -1439,15 +1439,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F747CD-59EE-3244-8143-56B1173E4817}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148:XFD148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="4"/>
     <col min="5" max="5" width="60" customWidth="1"/>
     <col min="6" max="6" width="26.5" customWidth="1"/>
@@ -3578,7 +3578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AB25F3-92C0-8A44-BC98-39A2B6C1364A}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -4033,7 +4033,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/FEDAI/FEIDA_Datalist.xlsx
+++ b/FEDAI/FEIDA_Datalist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yy2633/MA/RAship/FEDAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9198CAC-11D6-1742-91CD-A1C2B93FB77D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1781ECE2-E253-9744-9CA1-43C28672E794}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="25740" windowHeight="17040" xr2:uid="{5E06B9E7-531E-1848-A504-08FDF6D3C7A1}"/>
+    <workbookView xWindow="4280" yWindow="3360" windowWidth="25740" windowHeight="17040" xr2:uid="{5E06B9E7-531E-1848-A504-08FDF6D3C7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Whole Datalist" sheetId="1" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
   <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148:XFD148"/>
+      <selection activeCell="A49" sqref="A49:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1814,37 +1814,37 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1">
-      <c r="A28" s="5">
+    <row r="28" spans="1:6" s="26" customFormat="1">
+      <c r="A28" s="24">
         <v>88</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="26" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1">
-      <c r="A29" s="5">
+    <row r="29" spans="1:6" s="26" customFormat="1">
+      <c r="A29" s="24">
         <v>88</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="26" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2103,17 +2103,17 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="7" customFormat="1">
-      <c r="A49" s="5">
+    <row r="49" spans="1:5" s="26" customFormat="1">
+      <c r="A49" s="24">
         <v>126</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="26" t="s">
         <v>232</v>
       </c>
     </row>
